--- a/_reference_data/nps_park_start_dates.xlsx
+++ b/_reference_data/nps_park_start_dates.xlsx
@@ -213,9 +213,6 @@
     <t>Marsh-Billings-Rockefeller National Historical Park</t>
   </si>
   <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
     <t>Minute Man National Historical Park</t>
   </si>
   <si>
@@ -2590,6 +2587,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Martin Luther King National Historical Park</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2597,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2672,22 +2672,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3035,9 +3035,9 @@
   <dimension ref="A1:F421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="860" topLeftCell="A305" activePane="bottomLeft"/>
+      <pane ySplit="860" topLeftCell="A43" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="B330" sqref="B330"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3050,7 +3050,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3058,19 +3058,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3078,13 +3078,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3">
         <v>3827</v>
@@ -3101,7 +3101,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3115,7 +3115,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3129,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3143,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3157,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3171,7 +3171,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3185,7 +3185,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3199,7 +3199,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3213,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3227,7 +3227,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3241,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3255,7 +3255,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3269,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3283,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3297,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3305,13 +3305,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3325,7 +3325,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3333,13 +3333,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3353,7 +3353,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3367,7 +3367,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3381,7 +3381,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3395,7 +3395,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3403,13 +3403,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3417,13 +3417,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3437,7 +3437,7 @@
         <v>32</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3451,7 +3451,7 @@
         <v>32</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3465,7 +3465,7 @@
         <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3493,7 +3493,7 @@
         <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3507,7 +3507,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3521,7 +3521,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3538,7 +3538,7 @@
         <v>32</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3552,7 +3552,7 @@
         <v>32</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3569,7 +3569,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3583,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3597,7 +3597,7 @@
         <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>32</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3628,7 +3628,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3642,7 +3642,7 @@
         <v>32</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3656,7 +3656,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3673,7 +3673,7 @@
         <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3687,7 +3687,7 @@
         <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3704,7 +3704,7 @@
         <v>32</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3718,7 +3718,7 @@
         <v>32</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3732,7 +3732,7 @@
         <v>32</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3760,7 +3760,7 @@
         <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3788,7 +3788,7 @@
         <v>32</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3802,7 +3802,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3816,7 +3816,7 @@
         <v>32</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3830,7 +3830,7 @@
         <v>32</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3844,7 +3844,7 @@
         <v>32</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3858,7 +3858,7 @@
         <v>32</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3872,12 +3872,12 @@
         <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>856</v>
       </c>
       <c r="B59" s="3">
         <v>29504</v>
@@ -3886,12 +3886,12 @@
         <v>32</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3">
         <v>21654</v>
@@ -3900,12 +3900,12 @@
         <v>32</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3">
         <v>12115</v>
@@ -3914,12 +3914,12 @@
         <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3">
         <v>32423</v>
@@ -3928,12 +3928,12 @@
         <v>32</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="3">
         <v>35381</v>
@@ -3942,12 +3942,12 @@
         <v>32</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3">
         <v>34638</v>
@@ -3956,15 +3956,15 @@
         <v>32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C65" s="3">
         <v>3827</v>
@@ -3973,12 +3973,12 @@
         <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1">
       <c r="A66" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3">
         <v>28804</v>
@@ -3998,12 +3998,12 @@
         <v>32</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3">
         <v>39902</v>
@@ -4012,12 +4012,12 @@
         <v>32</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3">
         <v>23921</v>
@@ -4029,12 +4029,12 @@
         <v>32</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="3">
         <v>20296</v>
@@ -4043,12 +4043,12 @@
         <v>32</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="6" customFormat="1">
       <c r="A71" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3">
         <v>36823</v>
@@ -4068,12 +4068,12 @@
         <v>32</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="3">
         <v>33658</v>
@@ -4082,12 +4082,12 @@
         <v>32</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3">
         <v>28804</v>
@@ -4096,12 +4096,12 @@
         <v>32</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3">
         <v>32321</v>
@@ -4110,12 +4110,12 @@
         <v>32</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="3">
         <v>24359</v>
@@ -4124,12 +4124,12 @@
         <v>32</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="3">
         <v>14032</v>
@@ -4138,12 +4138,12 @@
         <v>32</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="3">
         <v>23620</v>
@@ -4152,12 +4152,12 @@
         <v>32</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="3">
         <v>3735</v>
@@ -4169,12 +4169,12 @@
         <v>32</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3">
         <v>20429</v>
@@ -4186,12 +4186,12 @@
         <v>32</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3">
         <v>3181</v>
@@ -4203,12 +4203,12 @@
         <v>32</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3">
         <v>27945</v>
@@ -4217,12 +4217,12 @@
         <v>32</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3">
         <v>28720</v>
@@ -4231,7 +4231,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4245,40 +4245,40 @@
         <v>32</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="3">
         <v>23620</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="3">
         <v>25857</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="3">
         <v>13025</v>
@@ -4287,239 +4287,239 @@
         <v>13025</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="3">
         <v>22070</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="3">
         <v>29504</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
         <v>33903</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="3">
         <v>25128</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="3">
         <v>37974</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="3">
         <v>32394</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3">
         <v>19057</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="3">
         <v>11107</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
         <v>28804</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="3">
         <v>24803</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="3">
         <v>28271</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="3">
         <v>28045</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="3">
         <v>36810</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="3">
         <v>11731</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="3">
         <v>23619</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="3">
         <v>22532</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="3">
         <v>14077</v>
@@ -4528,99 +4528,99 @@
         <v>14077</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="3">
         <v>23620</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" s="3">
         <v>25857</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
         <v>15071</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="3">
         <v>28782</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="3">
         <v>22537</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" s="3">
         <v>24278</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="3">
         <v>17703</v>
@@ -4629,667 +4629,667 @@
         <v>17703</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
         <v>22894</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="3">
         <v>29140</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="3">
         <v>28804</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="3">
         <v>26536</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="3">
         <v>17706</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" s="3">
         <v>30293</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="3">
         <v>23966</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="3">
         <v>16086</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1">
       <c r="A121" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="3">
         <v>23982</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="3">
         <v>29583</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124" s="3">
         <v>32134</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" s="3">
         <v>24618</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
         <v>23620</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B127" s="3">
         <v>27328</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" s="3">
         <v>26163</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" s="3">
         <v>36105</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
         <v>26581</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" s="3">
         <v>28804</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B132" s="3">
         <v>33666</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B133" s="3">
         <v>27328</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" s="3">
         <v>30239</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B135" s="3">
         <v>36908</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" s="3">
         <v>36493</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B137" s="3">
         <v>35381</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B138" s="3">
         <v>27991</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139" s="3">
         <v>24015</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140" s="3">
         <v>39902</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B141" s="3">
         <v>26528</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B142" s="3">
         <v>22852</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="3">
         <v>15892</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B144" s="3">
         <v>13956</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" s="3">
         <v>17943</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146" s="3">
         <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" s="3">
         <v>24933</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B148" s="3">
         <v>27328</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149" s="3">
         <v>31715</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150" s="3">
         <v>22852</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B151" s="3">
         <v>24413</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B152" s="3">
         <v>28804</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="3">
         <v>36105</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154" s="3">
         <v>27328</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B155" s="3">
         <v>32783</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="3">
         <v>14963</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B157" s="3">
         <v>35381</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>33177</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159" s="3">
         <v>13330</v>
@@ -5298,29 +5298,29 @@
         <v>13330</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B160" s="3">
         <v>25539</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161" s="3">
         <v>18057</v>
@@ -5329,15 +5329,15 @@
         <v>18057</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="8" customFormat="1">
       <c r="A162" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B162" s="9">
         <v>25837</v>
@@ -5345,15 +5345,15 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="8" customFormat="1">
       <c r="A163" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B163" s="9">
         <v>24395</v>
@@ -5361,15 +5361,15 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="8" customFormat="1">
       <c r="A164" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B164" s="9">
         <v>25862</v>
@@ -5377,15 +5377,15 @@
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="8" customFormat="1">
       <c r="A165" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B165" s="9">
         <v>22103</v>
@@ -5393,15 +5393,15 @@
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="8" customFormat="1">
       <c r="A166" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B166" s="9">
         <v>9195</v>
@@ -5409,15 +5409,15 @@
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="8" customFormat="1">
       <c r="A167" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B167" s="9">
         <v>24288</v>
@@ -5425,15 +5425,15 @@
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="8" customFormat="1">
       <c r="A168" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B168" s="9">
         <v>15206</v>
@@ -5441,15 +5441,15 @@
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="8" customFormat="1">
       <c r="A169" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B169" s="9">
         <v>17603</v>
@@ -5457,15 +5457,15 @@
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="8" customFormat="1">
       <c r="A170" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B170" s="9">
         <v>14391</v>
@@ -5473,15 +5473,15 @@
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="8" customFormat="1">
       <c r="A171" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B171" s="11">
         <v>37523</v>
@@ -5489,15 +5489,15 @@
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="8" customFormat="1">
       <c r="A172" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B172" s="9">
         <v>18527</v>
@@ -5505,15 +5505,15 @@
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="8" customFormat="1">
       <c r="A173" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B173" s="9">
         <v>21798</v>
@@ -5521,31 +5521,31 @@
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="8" customFormat="1">
       <c r="A174" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="8" customFormat="1">
       <c r="A175" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B175" s="9">
         <v>22763</v>
@@ -5553,15 +5553,15 @@
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="8" customFormat="1">
       <c r="A176" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B176" s="9">
         <v>23620</v>
@@ -5569,15 +5569,15 @@
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="8" customFormat="1">
       <c r="A177" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B177" s="9">
         <v>31713</v>
@@ -5585,15 +5585,15 @@
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="8" customFormat="1">
       <c r="A178" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B178" s="9">
         <v>22696</v>
@@ -5601,15 +5601,15 @@
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="8" customFormat="1">
       <c r="A179" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B179" s="9">
         <v>4058</v>
@@ -5617,15 +5617,15 @@
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="8" customFormat="1">
       <c r="A180" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B180" s="9">
         <v>27026</v>
@@ -5633,15 +5633,15 @@
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="8" customFormat="1">
       <c r="A181" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B181" s="9">
         <v>35381</v>
@@ -5649,15 +5649,15 @@
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="8" customFormat="1">
       <c r="A182" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B182" s="9">
         <v>9194</v>
@@ -5665,15 +5665,15 @@
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="8" customFormat="1">
       <c r="A183" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B183" s="9">
         <v>39787</v>
@@ -5681,15 +5681,15 @@
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="8" customFormat="1">
       <c r="A184" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B184" s="9">
         <v>13303</v>
@@ -5699,15 +5699,15 @@
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="8" customFormat="1">
       <c r="A185" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B185" s="9">
         <v>33905</v>
@@ -5715,15 +5715,15 @@
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="8" customFormat="1">
       <c r="A186" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B186" s="9">
         <v>24037</v>
@@ -5731,15 +5731,15 @@
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="8" customFormat="1">
       <c r="A187" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B187" s="9">
         <v>26593</v>
@@ -5747,15 +5747,15 @@
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="8" customFormat="1">
       <c r="A188" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B188" s="9">
         <v>11830</v>
@@ -5763,15 +5763,15 @@
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="8" customFormat="1">
       <c r="A189" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B189" s="9">
         <v>12596</v>
@@ -5779,15 +5779,15 @@
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="8" customFormat="1">
       <c r="A190" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B190" s="9">
         <v>29403</v>
@@ -5795,31 +5795,31 @@
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="8" customFormat="1">
       <c r="A191" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="8" customFormat="1">
       <c r="A192" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B192" s="9">
         <v>29720</v>
@@ -5827,15 +5827,15 @@
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="8" customFormat="1">
       <c r="A193" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B193" s="9">
         <v>34114</v>
@@ -5843,15 +5843,15 @@
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1">
       <c r="A194" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B194" s="7">
         <v>9923</v>
@@ -5859,15 +5859,15 @@
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="8" customFormat="1">
       <c r="A195" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B195" s="9">
         <v>38775</v>
@@ -5877,15 +5877,15 @@
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="8" customFormat="1">
       <c r="A196" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B196" s="9">
         <v>23898</v>
@@ -5895,15 +5895,15 @@
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="8" customFormat="1">
       <c r="A197" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B197" s="9">
         <v>23975</v>
@@ -5913,15 +5913,15 @@
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="8" customFormat="1">
       <c r="A198" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B198" s="9">
         <v>28825</v>
@@ -5931,15 +5931,15 @@
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="8" customFormat="1">
       <c r="A199" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B199" s="9">
         <v>8425</v>
@@ -5949,15 +5949,15 @@
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="8" customFormat="1">
       <c r="A200" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B200" s="9">
         <v>5886</v>
@@ -5967,15 +5967,15 @@
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="8" customFormat="1">
       <c r="A201" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B201" s="9">
         <v>42472</v>
@@ -5985,15 +5985,15 @@
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="8" customFormat="1">
       <c r="A202" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B202" s="9">
         <v>42747</v>
@@ -6003,15 +6003,15 @@
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="8" customFormat="1">
       <c r="A203" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B203" s="9">
         <v>20547</v>
@@ -6021,15 +6021,15 @@
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="8" customFormat="1">
       <c r="A204" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B204" s="9">
         <v>22643</v>
@@ -6039,15 +6039,15 @@
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="8" customFormat="1">
       <c r="A205" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B205" s="9">
         <v>5036</v>
@@ -6057,15 +6057,15 @@
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="8" customFormat="1">
       <c r="A206" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B206" s="9">
         <v>43399</v>
@@ -6075,15 +6075,15 @@
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="8" customFormat="1">
       <c r="A207" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B207" s="9">
         <v>11368</v>
@@ -6093,15 +6093,15 @@
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="8" customFormat="1">
       <c r="A208" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B208" s="9">
         <v>28825</v>
@@ -6111,15 +6111,15 @@
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="8" customFormat="1">
       <c r="A209" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B209" s="9">
         <v>6066</v>
@@ -6129,33 +6129,33 @@
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="8" customFormat="1">
       <c r="A210" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="8" customFormat="1">
       <c r="A211" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B211" s="9">
         <v>9055</v>
@@ -6165,15 +6165,15 @@
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="8" customFormat="1">
       <c r="A212" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B212" s="9">
         <v>17026</v>
@@ -6183,15 +6183,15 @@
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="8" customFormat="1">
       <c r="A213" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B213" s="9">
         <v>42412</v>
@@ -6201,15 +6201,15 @@
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="8" customFormat="1">
       <c r="A214" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B214" s="9">
         <v>12288</v>
@@ -6219,15 +6219,15 @@
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="8" customFormat="1">
       <c r="A215" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B215" s="9">
         <v>41190</v>
@@ -6237,15 +6237,15 @@
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="8" customFormat="1">
       <c r="A216" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B216" s="9">
         <v>41358</v>
@@ -6255,15 +6255,15 @@
       </c>
       <c r="D216" s="9"/>
       <c r="E216" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="8" customFormat="1">
       <c r="A217" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B217" s="9">
         <v>8875</v>
@@ -6273,15 +6273,15 @@
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="8" customFormat="1">
       <c r="A218" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B218" s="9">
         <v>4162</v>
@@ -6291,15 +6291,15 @@
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="8" customFormat="1">
       <c r="A219" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B219" s="9">
         <v>8889</v>
@@ -6309,15 +6309,15 @@
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="8" customFormat="1">
       <c r="A220" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B220" s="9">
         <v>4205</v>
@@ -6327,15 +6327,15 @@
       </c>
       <c r="D220" s="9"/>
       <c r="E220" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="8" customFormat="1">
       <c r="A221" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B221" s="9">
         <v>2459</v>
@@ -6345,15 +6345,15 @@
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="8" customFormat="1">
       <c r="A222" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B222" s="9">
         <v>5756</v>
@@ -6363,15 +6363,15 @@
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="8" customFormat="1">
       <c r="A223" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B223" s="9">
         <v>18196</v>
@@ -6381,15 +6381,15 @@
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="8" customFormat="1">
       <c r="A224" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B224" s="9">
         <v>32142</v>
@@ -6399,15 +6399,15 @@
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="8" customFormat="1">
       <c r="A225" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B225" s="9">
         <v>2534</v>
@@ -6417,15 +6417,15 @@
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="8" customFormat="1">
       <c r="A226" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B226" s="9">
         <v>25435</v>
@@ -6435,15 +6435,15 @@
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="8" customFormat="1">
       <c r="A227" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B227" s="9">
         <v>13296</v>
@@ -6453,15 +6453,15 @@
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="8" customFormat="1">
       <c r="A228" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B228" s="9">
         <v>9055</v>
@@ -6471,15 +6471,15 @@
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="8" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B229" s="9">
         <v>9194</v>
@@ -6489,15 +6489,15 @@
       </c>
       <c r="D229" s="9"/>
       <c r="E229" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="8" customFormat="1">
       <c r="A230" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B230" s="9">
         <v>40859</v>
@@ -6507,15 +6507,15 @@
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="8" customFormat="1">
       <c r="A231" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B231" s="9">
         <v>9055</v>
@@ -6525,15 +6525,15 @@
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="8" customFormat="1">
       <c r="A232" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B232" s="9">
         <v>13017</v>
@@ -6543,15 +6543,15 @@
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="8" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B233" s="9">
         <v>19933</v>
@@ -6561,15 +6561,15 @@
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="8" customFormat="1">
       <c r="A234" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B234" s="9">
         <v>26595</v>
@@ -6579,15 +6579,15 @@
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="8" customFormat="1">
       <c r="A235" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B235" s="9">
         <v>42747</v>
@@ -6597,15 +6597,15 @@
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="8" customFormat="1">
       <c r="A236" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B236" s="9">
         <v>10981</v>
@@ -6615,15 +6615,15 @@
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="8" customFormat="1">
       <c r="A237" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B237" s="9">
         <v>15901</v>
@@ -6633,15 +6633,15 @@
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="8" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B238" s="9">
         <v>2877</v>
@@ -6651,15 +6651,15 @@
       </c>
       <c r="D238" s="9"/>
       <c r="E238" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="8" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B239" s="9">
         <v>36910</v>
@@ -6669,15 +6669,15 @@
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="6" customFormat="1">
       <c r="A240" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B240" s="7">
         <v>18886</v>
@@ -6687,15 +6687,15 @@
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="8" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B241" s="9">
         <v>32404</v>
@@ -6705,15 +6705,15 @@
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="8" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B242" s="9">
         <v>26593</v>
@@ -6723,15 +6723,15 @@
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="8" customFormat="1">
       <c r="A243" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B243" s="9">
         <v>13228</v>
@@ -6741,15 +6741,15 @@
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="8" customFormat="1">
       <c r="A244" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B244" s="9">
         <v>8462</v>
@@ -6759,15 +6759,15 @@
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="8" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B245" s="9">
         <v>2960</v>
@@ -6777,15 +6777,15 @@
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="8" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B246" s="9">
         <v>27328</v>
@@ -6795,15 +6795,15 @@
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="8" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B247" s="9">
         <v>42606</v>
@@ -6813,15 +6813,15 @@
       </c>
       <c r="D247" s="9"/>
       <c r="E247" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="8" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B248" s="9">
         <v>9457</v>
@@ -6831,33 +6831,33 @@
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="6" customFormat="1">
       <c r="A249" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C249" s="7">
         <v>16883</v>
       </c>
       <c r="D249" s="7"/>
       <c r="E249" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="8" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B250" s="9">
         <v>2534</v>
@@ -6867,15 +6867,15 @@
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="8" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B251" s="9">
         <v>2931</v>
@@ -6885,15 +6885,15 @@
       </c>
       <c r="D251" s="9"/>
       <c r="E251" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="8" customFormat="1">
       <c r="A252" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B252" s="9">
         <v>3029</v>
@@ -6903,15 +6903,15 @@
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="8" customFormat="1">
       <c r="A253" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B253" s="9">
         <v>3367</v>
@@ -6921,15 +6921,15 @@
       </c>
       <c r="D253" s="9"/>
       <c r="E253" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="8" customFormat="1">
       <c r="A254" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B254" s="9">
         <v>3481</v>
@@ -6939,15 +6939,15 @@
       </c>
       <c r="D254" s="9"/>
       <c r="E254" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="8" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B255" s="9">
         <v>13618</v>
@@ -6957,15 +6957,15 @@
       </c>
       <c r="D255" s="9"/>
       <c r="E255" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="8" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B256" s="9">
         <v>33051</v>
@@ -6975,15 +6975,15 @@
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="8" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B257" s="9">
         <v>8552</v>
@@ -6993,15 +6993,15 @@
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="8" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B258" s="9">
         <v>13752</v>
@@ -7011,15 +7011,15 @@
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="8" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B259" s="9">
         <v>32447</v>
@@ -7029,15 +7029,15 @@
       </c>
       <c r="D259" s="9"/>
       <c r="E259" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="8" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B260" s="9">
         <v>42054</v>
@@ -7047,15 +7047,15 @@
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="8" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B261" s="9">
         <v>3803</v>
@@ -7065,15 +7065,15 @@
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="8" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B262" s="9">
         <v>22412</v>
@@ -7083,15 +7083,15 @@
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="8" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B263" s="9">
         <v>3593</v>
@@ -7101,15 +7101,15 @@
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="8" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B264" s="9">
         <v>7286</v>
@@ -7119,15 +7119,15 @@
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="8" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B265" s="9">
         <v>9055</v>
@@ -7137,15 +7137,15 @@
       </c>
       <c r="D265" s="9"/>
       <c r="E265" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="8" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B266" s="9">
         <v>42545</v>
@@ -7155,15 +7155,15 @@
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="8" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B267" s="9">
         <v>11104</v>
@@ -7173,15 +7173,15 @@
       </c>
       <c r="D267" s="9"/>
       <c r="E267" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="8" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B268" s="9">
         <v>8323</v>
@@ -7191,15 +7191,15 @@
       </c>
       <c r="D268" s="9"/>
       <c r="E268" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="8" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B269" s="9">
         <v>2910</v>
@@ -7209,15 +7209,15 @@
       </c>
       <c r="D269" s="9"/>
       <c r="E269" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="8" customFormat="1">
       <c r="A270" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B270" s="9">
         <v>39787</v>
@@ -7227,15 +7227,15 @@
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="8" customFormat="1">
       <c r="A271" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B271" s="9">
         <v>41992</v>
@@ -7245,15 +7245,15 @@
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="8" customFormat="1">
       <c r="A272" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B272" s="9">
         <v>14451</v>
@@ -7263,15 +7263,15 @@
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="8" customFormat="1">
       <c r="A273" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B273" s="9">
         <v>36908</v>
@@ -7281,15 +7281,15 @@
       </c>
       <c r="D273" s="9"/>
       <c r="E273" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="8" customFormat="1">
       <c r="A274" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B274" s="9">
         <v>42195</v>
@@ -7299,15 +7299,15 @@
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="8" customFormat="1">
       <c r="A275" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B275" s="9">
         <v>5813</v>
@@ -7317,15 +7317,15 @@
       </c>
       <c r="D275" s="9"/>
       <c r="E275" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="8" customFormat="1">
       <c r="A276" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B276" s="9">
         <v>12072</v>
@@ -7335,15 +7335,15 @@
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="8" customFormat="1">
       <c r="A277" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B277" s="9">
         <v>9110</v>
@@ -7353,15 +7353,15 @@
       </c>
       <c r="D277" s="9"/>
       <c r="E277" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="8" customFormat="1">
       <c r="A278" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B278" s="9">
         <v>7293</v>
@@ -7371,15 +7371,15 @@
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="8" customFormat="1">
       <c r="A279" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B279" s="9">
         <v>6034</v>
@@ -7391,15 +7391,15 @@
         <v>6997</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="8" customFormat="1">
       <c r="A280" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B280" s="9">
         <v>10695</v>
@@ -7411,15 +7411,15 @@
         <v>26249</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="8" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B281" s="9">
         <v>10656</v>
@@ -7431,15 +7431,15 @@
         <v>28804</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="8" customFormat="1">
       <c r="A282" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B282" s="9">
         <v>16235</v>
@@ -7449,15 +7449,15 @@
         <v>16235</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="8" customFormat="1">
       <c r="A283" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B283" s="9">
         <v>25129</v>
@@ -7469,15 +7469,15 @@
         <v>29400</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="8" customFormat="1">
       <c r="A284" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B284" s="9">
         <v>12115</v>
@@ -7489,15 +7489,15 @@
         <v>36454</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="8" customFormat="1">
       <c r="A285" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B285" s="9">
         <v>8560</v>
@@ -7509,15 +7509,15 @@
         <v>8925</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="8" customFormat="1">
       <c r="A286" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B286" s="9">
         <v>23632</v>
@@ -7527,15 +7527,15 @@
         <v>23632</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="8" customFormat="1">
       <c r="A287" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B287" s="9">
         <v>13729</v>
@@ -7547,15 +7547,15 @@
         <v>26285</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="8" customFormat="1">
       <c r="A288" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B288" s="9">
         <v>8699</v>
@@ -7567,15 +7567,15 @@
         <v>11092</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="8" customFormat="1">
       <c r="A289" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B289" s="9">
         <v>13996</v>
@@ -7587,15 +7587,15 @@
         <v>29285</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="8" customFormat="1">
       <c r="A290" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B290" s="9">
         <v>28051</v>
@@ -7607,15 +7607,15 @@
         <v>37935</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="8" customFormat="1">
       <c r="A291" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B291" s="9">
         <v>873</v>
@@ -7625,15 +7625,15 @@
         <v>873</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="8" customFormat="1">
       <c r="A292" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B292" s="9">
         <v>27390</v>
@@ -7643,15 +7643,15 @@
         <v>36810</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="8" customFormat="1">
       <c r="A293" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B293" s="9">
         <v>12096</v>
@@ -7663,15 +7663,15 @@
         <v>34638</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="8" customFormat="1">
       <c r="A294" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B294" s="9">
         <v>6267</v>
@@ -7683,15 +7683,15 @@
         <v>6267</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="8" customFormat="1">
       <c r="A295" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B295" s="9">
         <v>12788</v>
@@ -7703,15 +7703,15 @@
         <v>33903</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="8" customFormat="1">
       <c r="A296" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B296" s="9">
         <v>12569</v>
@@ -7721,15 +7721,15 @@
         <v>17507</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="8" customFormat="1">
       <c r="A297" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B297" s="9">
         <v>28825</v>
@@ -7741,15 +7741,15 @@
         <v>29557</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="8" customFormat="1">
       <c r="A298" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B298" s="9">
         <v>13139</v>
@@ -7759,15 +7759,15 @@
         <v>43153</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="8" customFormat="1">
       <c r="A299" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B299" s="9">
         <v>9189</v>
@@ -7779,15 +7779,15 @@
         <v>29557</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="8" customFormat="1">
       <c r="A300" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B300" s="9">
         <v>3784</v>
@@ -7797,18 +7797,18 @@
         <v>3784</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="8" customFormat="1">
       <c r="A301" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C301" s="9">
         <v>2933</v>
@@ -7817,15 +7817,15 @@
         <v>6997</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="8" customFormat="1">
       <c r="A302" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B302" s="9">
         <v>10650</v>
@@ -7835,15 +7835,15 @@
         <v>10650</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="8" customFormat="1">
       <c r="A303" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B303" s="9">
         <v>8060</v>
@@ -7855,15 +7855,15 @@
         <v>31712</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="8" customFormat="1">
       <c r="A304" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B304" s="9">
         <v>11765</v>
@@ -7875,15 +7875,15 @@
         <v>36852</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="8" customFormat="1">
       <c r="A305" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B305" s="9">
         <v>9639</v>
@@ -7893,15 +7893,15 @@
         <v>9639</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="8" customFormat="1">
       <c r="A306" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B306" s="9">
         <v>26572</v>
@@ -7911,15 +7911,15 @@
         <v>26572</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="8" customFormat="1">
       <c r="A307" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B307" s="9">
         <v>6058</v>
@@ -7929,15 +7929,15 @@
         <v>6058</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="8" customFormat="1">
       <c r="A308" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B308" s="9">
         <v>6058</v>
@@ -7947,33 +7947,33 @@
         <v>6058</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="8" customFormat="1">
       <c r="A309" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9">
         <v>7734</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="8" customFormat="1">
       <c r="A310" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B310" s="9">
         <v>24416</v>
@@ -7983,15 +7983,15 @@
         <v>43511</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="8" customFormat="1">
       <c r="A311" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B311" s="9">
         <v>11385</v>
@@ -8001,15 +8001,15 @@
         <v>11385</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="312" spans="1:6" s="8" customFormat="1">
       <c r="A312" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B312" s="9">
         <v>13372</v>
@@ -8021,15 +8021,15 @@
         <v>34638</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="8" customFormat="1">
       <c r="A313" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B313" s="9">
         <v>6842</v>
@@ -8041,15 +8041,15 @@
         <v>29557</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="8" customFormat="1">
       <c r="A314" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B314" s="9">
         <v>28825</v>
@@ -8061,33 +8061,33 @@
         <v>29557</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="8" customFormat="1">
       <c r="A315" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="8" customFormat="1">
       <c r="A316" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B316" s="9">
         <v>28825</v>
@@ -8099,15 +8099,15 @@
         <v>29557</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="8" customFormat="1">
       <c r="A317" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B317" s="9">
         <v>28825</v>
@@ -8119,15 +8119,15 @@
         <v>29557</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="8" customFormat="1">
       <c r="A318" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B318" s="9">
         <v>2683</v>
@@ -8139,15 +8139,15 @@
         <v>6066</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="319" spans="1:6" s="8" customFormat="1">
       <c r="A319" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B319" s="9">
         <v>9642</v>
@@ -8157,15 +8157,15 @@
         <v>15158</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="8" customFormat="1">
       <c r="A320" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B320" s="9">
         <v>2372</v>
@@ -8175,33 +8175,33 @@
         <v>2372</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="8" customFormat="1">
       <c r="A321" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="8" customFormat="1">
       <c r="A322" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B322" s="9">
         <v>32447</v>
@@ -8211,15 +8211,15 @@
         <v>32447</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F322" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="8" customFormat="1">
       <c r="A323" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B323" s="9">
         <v>25113</v>
@@ -8229,15 +8229,15 @@
         <v>25113</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="8" customFormat="1">
       <c r="A324" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B324" s="9">
         <v>3349</v>
@@ -8249,15 +8249,15 @@
         <v>14060</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="8" customFormat="1">
       <c r="A325" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B325" s="9">
         <v>2534</v>
@@ -8269,15 +8269,15 @@
         <v>22989</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="8" customFormat="1">
       <c r="A326" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B326" s="9">
         <v>2938</v>
@@ -8289,15 +8289,15 @@
         <v>41284</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="8" customFormat="1">
       <c r="A327" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B327" s="9">
         <v>25113</v>
@@ -8307,15 +8307,15 @@
         <v>25113</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="8" customFormat="1">
       <c r="A328" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B328" s="9">
         <v>5505</v>
@@ -8325,15 +8325,15 @@
         <v>5505</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="8" customFormat="1">
       <c r="A329" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B329" s="9">
         <v>12114</v>
@@ -8345,33 +8345,33 @@
         <v>34611</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="8" customFormat="1">
       <c r="A330" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C330" s="9"/>
       <c r="D330" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F330" s="8" t="s">
         <v>824</v>
-      </c>
-      <c r="E330" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F330" s="8" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="8" customFormat="1">
       <c r="A331" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B331" s="9">
         <v>9639</v>
@@ -8381,15 +8381,15 @@
         <v>13144</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="8" customFormat="1">
       <c r="A332" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B332" s="9">
         <v>17282</v>
@@ -8399,15 +8399,15 @@
         <v>28804</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="8" customFormat="1">
       <c r="A333" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B333" s="9">
         <v>20669</v>
@@ -8417,15 +8417,15 @@
         <v>20669</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F333" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="8" customFormat="1">
       <c r="A334" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B334" s="9">
         <v>25941</v>
@@ -8435,15 +8435,15 @@
         <v>27492</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F334" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="8" customFormat="1">
       <c r="A335" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B335" s="9">
         <v>1105</v>
@@ -8453,15 +8453,15 @@
         <v>1105</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="8" customFormat="1">
       <c r="A336" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B336" s="9">
         <v>28825</v>
@@ -8473,51 +8473,51 @@
         <v>29557</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="8" customFormat="1">
       <c r="A337" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C337" s="9"/>
       <c r="D337" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F337" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="8" customFormat="1">
       <c r="A338" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C338" s="9"/>
       <c r="D338" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F338" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="339" spans="1:6" s="8" customFormat="1">
       <c r="A339" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B339" s="9">
         <v>3500</v>
@@ -8529,15 +8529,15 @@
         <v>7263</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="340" spans="1:6" s="6" customFormat="1">
       <c r="A340" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B340" s="7">
         <v>13331</v>
@@ -8545,15 +8545,15 @@
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="341" spans="1:6" s="8" customFormat="1">
       <c r="A341" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B341" s="9">
         <v>11107</v>
@@ -8561,15 +8561,15 @@
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
       <c r="E341" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="342" spans="1:6" s="8" customFormat="1">
       <c r="A342" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B342" s="9">
         <v>26536</v>
@@ -8577,15 +8577,15 @@
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
       <c r="E342" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="343" spans="1:6" s="8" customFormat="1">
       <c r="A343" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B343" s="9">
         <v>14018</v>
@@ -8595,30 +8595,30 @@
       </c>
       <c r="D343" s="9"/>
       <c r="E343" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="344" spans="1:6" s="8" customFormat="1">
       <c r="A344" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B344" s="11">
         <v>29557</v>
       </c>
       <c r="C344" s="11"/>
       <c r="E344" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="345" spans="1:6" s="8" customFormat="1">
       <c r="A345" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B345" s="11">
         <v>28825</v>
@@ -8627,75 +8627,75 @@
         <v>28825</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="346" spans="1:6" s="8" customFormat="1">
       <c r="A346" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B346" s="11">
         <v>27313</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="347" spans="1:6" s="8" customFormat="1">
       <c r="A347" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B347" s="11">
         <v>27313</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="8" customFormat="1">
       <c r="A348" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B348" s="11">
         <v>8889</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E348" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="349" spans="1:6" s="8" customFormat="1">
       <c r="A349" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B349" s="11">
         <v>29557</v>
       </c>
       <c r="C349" s="11"/>
       <c r="E349" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B350" s="2">
         <v>29557</v>
@@ -8703,15 +8703,15 @@
       <c r="C350" s="2"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B351" s="2">
         <v>29557</v>
@@ -8719,15 +8719,15 @@
       <c r="C351" s="2"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B352" s="2">
         <v>36852</v>
@@ -8735,15 +8735,15 @@
       <c r="C352" s="2"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B353" s="2">
         <v>29557</v>
@@ -8751,15 +8751,15 @@
       <c r="C353" s="2"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B354" s="2">
         <v>29557</v>
@@ -8767,15 +8767,15 @@
       <c r="C354" s="2"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B355" s="2">
         <v>33901</v>
@@ -8783,15 +8783,15 @@
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B356" s="2">
         <v>34638</v>
@@ -8799,15 +8799,15 @@
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B357" s="2">
         <v>29557</v>
@@ -8815,15 +8815,15 @@
       <c r="C357" s="2"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B358" s="2">
         <v>35381</v>
@@ -8831,15 +8831,15 @@
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B359" s="2">
         <v>32189</v>
@@ -8847,15 +8847,15 @@
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B360" s="2">
         <v>36732</v>
@@ -8863,15 +8863,15 @@
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B361" s="2">
         <v>29557</v>
@@ -8879,15 +8879,15 @@
       <c r="C361" s="2"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B362" s="2">
         <v>29557</v>
@@ -8895,15 +8895,15 @@
       <c r="C362" s="2"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B363" s="2">
         <v>32465</v>
@@ -8911,15 +8911,15 @@
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B364" s="2">
         <v>25882</v>
@@ -8927,15 +8927,15 @@
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B365" s="2">
         <v>24057</v>
@@ -8943,15 +8943,15 @@
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B366" s="2">
         <v>24395</v>
@@ -8959,15 +8959,15 @@
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B367" s="2">
         <v>35381</v>
@@ -8975,15 +8975,15 @@
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B368" s="2">
         <v>28717</v>
@@ -8991,15 +8991,15 @@
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B369" s="2">
         <v>913</v>
@@ -9007,15 +9007,15 @@
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B370" s="2">
         <v>23784</v>
@@ -9023,15 +9023,15 @@
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B371" s="2">
         <v>23986</v>
@@ -9039,15 +9039,15 @@
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B372" s="2">
         <v>26599</v>
@@ -9055,15 +9055,15 @@
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B373" s="2">
         <v>32442</v>
@@ -9071,15 +9071,15 @@
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B374" s="2">
         <v>26599</v>
@@ -9087,15 +9087,15 @@
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B375" s="2">
         <v>26599</v>
@@ -9103,15 +9103,15 @@
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B376" s="2">
         <v>25113</v>
@@ -9119,33 +9119,33 @@
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C377" s="2">
         <v>2933</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B378" s="2">
         <v>23816</v>
@@ -9153,15 +9153,15 @@
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B379" s="2">
         <v>17154</v>
@@ -9169,15 +9169,15 @@
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B380" s="2">
         <v>25113</v>
@@ -9185,15 +9185,15 @@
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B381" s="2">
         <v>28804</v>
@@ -9201,15 +9201,15 @@
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B382" s="2">
         <v>24054</v>
@@ -9217,15 +9217,15 @@
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B383" s="2">
         <v>27156</v>
@@ -9233,15 +9233,15 @@
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B384" s="2">
         <v>26359</v>
@@ -9249,15 +9249,15 @@
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B385" s="2">
         <v>28804</v>
@@ -9265,15 +9265,15 @@
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B386" s="2">
         <v>32465</v>
@@ -9281,15 +9281,15 @@
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B387" s="2">
         <v>23616</v>
@@ -9297,15 +9297,15 @@
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B388" s="2">
         <v>29557</v>
@@ -9313,15 +9313,15 @@
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B389" s="2">
         <v>32442</v>
@@ -9329,15 +9329,15 @@
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B390" s="2">
         <v>28804</v>
@@ -9345,15 +9345,15 @@
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B391" s="2">
         <v>33904</v>
@@ -9361,15 +9361,15 @@
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B392" s="2">
         <v>28804</v>
@@ -9377,15 +9377,15 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B393" s="2">
         <v>33382</v>
@@ -9393,15 +9393,15 @@
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B394" s="2">
         <v>28045</v>
@@ -9409,15 +9409,15 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B395" s="2">
         <v>28804</v>
@@ -9425,15 +9425,15 @@
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B396" s="2">
         <v>25113</v>
@@ -9441,15 +9441,15 @@
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B397" s="2">
         <v>28804</v>
@@ -9457,15 +9457,15 @@
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B398" s="2">
         <v>25113</v>
@@ -9473,15 +9473,15 @@
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B399" s="2">
         <v>30403</v>
@@ -9489,15 +9489,15 @@
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B400" s="2">
         <v>30403</v>
@@ -9505,155 +9505,155 @@
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="401" spans="1:6" s="8" customFormat="1">
       <c r="A401" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B401" s="11">
         <v>24006</v>
       </c>
       <c r="E401" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F401" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="402" spans="1:6" s="8" customFormat="1">
       <c r="A402" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B402" s="11">
         <v>27397</v>
       </c>
       <c r="E402" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F402" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="403" spans="1:6" s="6" customFormat="1">
       <c r="A403" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B403" s="10">
         <v>24259</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="404" spans="1:6" s="6" customFormat="1">
       <c r="A404" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B404" s="10">
         <v>19371</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="405" spans="1:6" s="8" customFormat="1">
       <c r="A405" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B405" s="11">
         <v>24176</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F405" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="406" spans="1:6" s="8" customFormat="1">
       <c r="A406" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B406" s="11">
         <v>26595</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F406" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="407" spans="1:6" s="6" customFormat="1">
       <c r="A407" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B407" s="10">
         <v>30936</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F407" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="408" spans="1:6" s="8" customFormat="1">
       <c r="A408" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B408" s="11">
         <v>25941</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F408" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="409" spans="1:6" s="6" customFormat="1">
       <c r="A409" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B409" s="10">
         <v>24934</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F409" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="410" spans="1:6" s="6" customFormat="1">
       <c r="A410" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B410" s="10">
         <v>26592</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B411" s="2">
         <v>13468</v>
@@ -9661,15 +9661,15 @@
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B412" s="2">
         <v>27242</v>
@@ -9677,15 +9677,15 @@
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B413" s="2">
         <v>11107</v>
@@ -9693,15 +9693,15 @@
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B414" s="2">
         <v>18478</v>
@@ -9709,15 +9709,15 @@
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B415" s="2">
         <v>12276</v>
@@ -9725,31 +9725,31 @@
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B417" s="2">
         <v>22558</v>
@@ -9757,15 +9757,15 @@
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B418" s="2">
         <v>13468</v>
@@ -9773,31 +9773,31 @@
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B420" s="2">
         <v>12276</v>
@@ -9805,15 +9805,15 @@
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B421" s="2">
         <v>24395</v>
@@ -9821,10 +9821,10 @@
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
